--- a/suppxls/Scen_Localisation-MED.xlsx
+++ b/suppxls/Scen_Localisation-MED.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50146072-FB85-4AFF-B103-C1550CB767BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{232E471A-D1BC-46EA-822F-4A9C8F9BFC34}"/>
+    <workbookView xWindow="-825" yWindow="-18675" windowWidth="28770" windowHeight="15600" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,10 +43,12 @@
   <commentList>
     <comment ref="U28" authorId="0" shapeId="0" xr:uid="{BFF637BF-F295-4BD2-8A3C-4C0D24997E80}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     This must be re-activated when Reference costs are changed. One must leave it de-activated for High Localisation scenarios</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -461,9 +463,6 @@
     <t>Cost Increase</t>
   </si>
   <si>
-    <t>TFM_FILL</t>
-  </si>
-  <si>
     <t>Localisation</t>
   </si>
   <si>
@@ -471,6 +470,9 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>~TFM_FILL</t>
   </si>
 </sst>
 </file>
@@ -480,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,11 +491,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -583,6 +584,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -592,86 +594,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -687,14 +609,85 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
@@ -702,69 +695,172 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+  <cellStyleXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="20" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="22" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="22" applyFont="1">
+      <alignment/>
+      <protection/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="15" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="15" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="5"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="23"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="23" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Heading 4" xfId="2" builtinId="19"/>
-    <cellStyle name="Input" xfId="5" builtinId="20"/>
+  <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 13" xfId="4" xr:uid="{8D155F1E-CE31-43C4-B63E-69EA0E23AFF4}"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{114B2D43-D8F0-4A77-911E-913BD0BF594C}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 13" xfId="22"/>
+    <cellStyle name="Input" xfId="23" builtinId="20"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -777,7 +873,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>48</xdr:col>
@@ -791,12 +887,12 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Arrow: Right 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A247403-132B-398E-E96F-241036AD5818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6a247403-132b-398e-e96f-241036ad5818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -804,12 +900,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="30828191" y="3757083"/>
-          <a:ext cx="1440392" cy="522817"/>
+          <a:off x="31089600" y="4562475"/>
+          <a:ext cx="1428750" cy="523875"/>
         </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:prstGeom prst="rightArrow"/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -824,7 +918,7 @@
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="bg1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
@@ -848,9 +942,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -888,7 +982,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -994,7 +1088,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1136,13 +1230,13 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComments1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="U28" dT="2023-12-19T09:22:03.61" personId="{B5E69722-C63D-4CBF-877A-AF5854BD44E9}" id="{BFF637BF-F295-4BD2-8A3C-4C0D24997E80}">
     <text>This must be re-activated when Reference costs are changed. One must leave it de-activated for High Localisation scenarios</text>
@@ -1151,41 +1245,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C1C3BE-43A3-4F6E-B7BA-55F1C4F1EF02}">
   <dimension ref="B1:BL87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="53" max="53" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" customWidth="1"/>
+    <col min="4" max="4" width="11.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="9.85714285714286" customWidth="1"/>
+    <col min="6" max="6" width="19.4285714285714" customWidth="1"/>
+    <col min="53" max="53" width="16.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3" ht="15">
       <c r="B1" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:19" ht="15">
       <c r="B2" s="19"/>
       <c r="C2" s="22"/>
       <c r="S2" s="10"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15">
       <c r="B3" s="19"/>
       <c r="C3" s="22"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" ht="15">
       <c r="B4" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C4" s="33" t="s">
         <v>113</v>
@@ -1194,28 +1288,28 @@
       <c r="T4" s="10"/>
       <c r="U4" s="10"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15">
       <c r="B5" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="33" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:3" ht="15">
       <c r="B6" s="19"/>
       <c r="C6" s="22"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15">
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:5" ht="15">
       <c r="E8" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:12" ht="15">
       <c r="G9" s="12">
         <v>2017</v>
       </c>
@@ -1235,7 +1329,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:12" ht="15">
       <c r="E10" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1345,7 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I10" s="27">
-        <f t="shared" ref="I10:L13" si="0">SUMIFS(I$45:I$67,$C$45:$C$67,$E25,$F$45:$F$67,$C$4)</f>
+        <f t="shared" si="0" ref="I10:L13">SUMIFS(I$45:I$67,$C$45:$C$67,$E25,$F$45:$F$67,$C$4)</f>
         <v>0.5</v>
       </c>
       <c r="J10" s="27">
@@ -1260,14 +1354,14 @@
       </c>
       <c r="K10" s="27">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="L10" s="27">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+        <v>0.65000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" ht="15">
       <c r="E11" t="s">
         <v>11</v>
       </c>
@@ -1292,14 +1386,14 @@
       </c>
       <c r="K11" s="27">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="L11" s="27">
         <f t="shared" si="0"/>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+        <v>0.65000000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" ht="15">
       <c r="E12" t="s">
         <v>123</v>
       </c>
@@ -1331,7 +1425,7 @@
         <v>0.78098360655737697</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:12" ht="15">
       <c r="E13" t="s">
         <v>120</v>
       </c>
@@ -1360,18 +1454,18 @@
       </c>
       <c r="L13" s="27">
         <f t="shared" si="0"/>
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+        <v>0.94999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="5:5" ht="15">
       <c r="E16" s="10"/>
     </row>
-    <row r="21" spans="3:64" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" ht="18.75">
       <c r="C21" s="34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="22" spans="20:64" ht="15">
       <c r="T22" s="12" t="s">
         <v>109</v>
       </c>
@@ -1420,7 +1514,7 @@
       <c r="BK22" s="13"/>
       <c r="BL22" s="13"/>
     </row>
-    <row r="23" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:20" ht="15">
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,7 +1527,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" ht="15">
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1559,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="25" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14 52:52" ht="15">
       <c r="C25" s="3" t="s">
         <v>3</v>
       </c>
@@ -1487,7 +1581,7 @@
         <v>0.52941176470588236</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" ref="I25:L28" si="1">1-I10</f>
+        <f t="shared" si="1" ref="I25:L28">1-I10</f>
         <v>0.5</v>
       </c>
       <c r="J25" s="5">
@@ -1496,11 +1590,11 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="L25" s="5">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="N25" t="s">
         <v>20</v>
@@ -1509,7 +1603,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:20 52:59" ht="15">
       <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
@@ -1540,11 +1634,11 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
-        <v>0.4</v>
+        <v>0.40000000000000002</v>
       </c>
       <c r="L26" s="5">
         <f t="shared" si="1"/>
-        <v>0.35</v>
+        <v>0.34999999999999998</v>
       </c>
       <c r="T26" s="14" t="s">
         <v>106</v>
@@ -1553,7 +1647,7 @@
         <v>108</v>
       </c>
       <c r="BB26" s="4">
-        <f t="shared" ref="BB26:BG26" si="2">SUMIF($F$70:$F$73,$C$5,G70:G73)</f>
+        <f t="shared" si="2" ref="BB26:BG26">SUMIF($F$70:$F$73,$C$5,G70:G73)</f>
         <v>0</v>
       </c>
       <c r="BC26" s="4">
@@ -1577,7 +1671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" ht="15">
       <c r="C27" t="s">
         <v>121</v>
       </c>
@@ -1615,7 +1709,7 @@
         <v>0.21901639344262303</v>
       </c>
     </row>
-    <row r="28" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:62" ht="15">
       <c r="C28" t="s">
         <v>122</v>
       </c>
@@ -1630,50 +1724,50 @@
       </c>
       <c r="G28" s="6">
         <f>O36</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="H28" s="5">
         <f>G28</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="1"/>
-        <v>6.1576354679802936E-2</v>
+        <v>0.061576354679802936</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="1"/>
-        <v>5.1724137931034475E-2</v>
+        <v>0.051724137931034475</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="1"/>
-        <v>5.1724137931034475E-2</v>
+        <v>0.051724137931034475</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="1"/>
-        <v>5.0000000000000044E-2</v>
+        <v>0.050000000000000044</v>
       </c>
       <c r="U28" s="30" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Z28" t="str">
         <f>U28</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AE28" t="str">
         <f>Z28</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AJ28" t="str">
         <f>AE28</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AP28" t="str">
         <f>AJ28</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AU28" t="str">
         <f>AP28</f>
-        <v>TFM_FILL</v>
+        <v>~TFM_FILL</v>
       </c>
       <c r="AZ28" s="1" t="s">
         <v>0</v>
@@ -1682,7 +1776,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="29" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="29" spans="20:59" ht="15">
       <c r="T29" s="8" t="s">
         <v>22</v>
       </c>
@@ -1787,7 +1881,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="30" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="30" spans="20:62" ht="15">
       <c r="T30" s="9" t="s">
         <v>25</v>
       </c>
@@ -1837,7 +1931,7 @@
         <v>21</v>
       </c>
       <c r="AQ30" s="9" t="str">
-        <f t="shared" ref="AQ30:AQ53" si="3">V30</f>
+        <f t="shared" si="3" ref="AQ30:AQ53">V30</f>
         <v>ETCLEMEDU-N</v>
       </c>
       <c r="AR30" s="7">
@@ -1862,34 +1956,34 @@
         <v>ETCLEMEDU-N</v>
       </c>
       <c r="BB30">
-        <f t="shared" ref="BB30:BB69" si="4">IF($BJ30,X30*(1+$BB$26),X30)</f>
+        <f t="shared" si="4" ref="BB30:BB69">IF($BJ30,X30*(1+$BB$26),X30)</f>
         <v>51359.8538564517</v>
       </c>
       <c r="BC30" t="str">
-        <f t="shared" ref="BC30:BC53" si="5">IF(IF($BJ30,AC30*(1+BC$26),AC30)=0,"",IF($BJ30,AC30*(1+BC$26),AC30))</f>
+        <f t="shared" si="5" ref="BC30:BC53">IF(IF($BJ30,AC30*(1+BC$26),AC30)=0,"",IF($BJ30,AC30*(1+BC$26),AC30))</f>
         <v/>
       </c>
       <c r="BD30" t="str">
-        <f t="shared" ref="BD30:BD53" si="6">IF(IF($BJ30,AH30*(1+BD$26),AH30)=0,"",IF($BJ30,AH30*(1+BD$26),AH30))</f>
+        <f t="shared" si="6" ref="BD30:BD53">IF(IF($BJ30,AH30*(1+BD$26),AH30)=0,"",IF($BJ30,AH30*(1+BD$26),AH30))</f>
         <v/>
       </c>
       <c r="BE30" t="str">
-        <f t="shared" ref="BE30:BE53" si="7">IF(IF($BJ30,AM30*(1+BE$26),AM30)=0,"",IF($BJ30,AM30*(1+BE$26),AM30))</f>
+        <f t="shared" si="7" ref="BE30:BE53">IF(IF($BJ30,AM30*(1+BE$26),AM30)=0,"",IF($BJ30,AM30*(1+BE$26),AM30))</f>
         <v/>
       </c>
       <c r="BF30" t="str">
-        <f t="shared" ref="BF30:BF53" si="8">IF(IF($BJ30,AS30*(1+BF$26),AS30)=0,"",IF($BJ30,AS30*(1+BF$26),AS30))</f>
+        <f t="shared" si="8" ref="BF30:BF53">IF(IF($BJ30,AS30*(1+BF$26),AS30)=0,"",IF($BJ30,AS30*(1+BF$26),AS30))</f>
         <v/>
       </c>
       <c r="BG30" t="str">
-        <f t="shared" ref="BG30:BG53" si="9">IF(IF($BJ30,AX30*(1+BG$26),AX30)=0,"",IF($BJ30,AX30*(1+BG$26),AX30))</f>
+        <f t="shared" si="9" ref="BG30:BG53">IF(IF($BJ30,AX30*(1+BG$26),AX30)=0,"",IF($BJ30,AX30*(1+BG$26),AX30))</f>
         <v/>
       </c>
       <c r="BJ30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="31" spans="20:62" ht="15">
       <c r="T31" s="9" t="s">
         <v>27</v>
       </c>
@@ -1909,7 +2003,7 @@
         <v>21</v>
       </c>
       <c r="AA31" s="9" t="str">
-        <f t="shared" ref="AA31:AA53" si="10">V31</f>
+        <f t="shared" si="10" ref="AA31:AA53">V31</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AB31" s="7">
@@ -1919,7 +2013,7 @@
         <v>21</v>
       </c>
       <c r="AF31" s="9" t="str">
-        <f t="shared" ref="AF31:AF53" si="11">AA31</f>
+        <f t="shared" si="11" ref="AF31:AF53">AA31</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AG31" s="7">
@@ -1929,7 +2023,7 @@
         <v>21</v>
       </c>
       <c r="AK31" s="9" t="str">
-        <f t="shared" ref="AK31:AK53" si="12">AF31</f>
+        <f t="shared" si="12" ref="AK31:AK53">AF31</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AL31" s="7">
@@ -1949,18 +2043,18 @@
         <v>21</v>
       </c>
       <c r="AV31" s="9" t="str">
-        <f t="shared" ref="AV31:AV53" si="13">V31</f>
+        <f t="shared" si="13" ref="AV31:AV53">V31</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="AW31" s="7">
         <v>2050</v>
       </c>
       <c r="AZ31" t="str">
-        <f t="shared" ref="AZ31:AZ69" si="14">U31</f>
+        <f t="shared" si="14" ref="AZ31:AZ69">U31</f>
         <v>NCAP_COST</v>
       </c>
       <c r="BA31" t="str">
-        <f t="shared" ref="BA31:BA69" si="15">V31</f>
+        <f t="shared" si="15" ref="BA31:BA69">V31</f>
         <v>ETCLEKUSI-N</v>
       </c>
       <c r="BB31">
@@ -1991,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:64" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:62" ht="15">
       <c r="C32" s="10" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:62" ht="15">
       <c r="C33" s="16"/>
       <c r="D33" s="17" t="s">
         <v>12</v>
@@ -2219,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:62" ht="15">
       <c r="C34" s="19"/>
       <c r="D34" t="s">
         <v>13</v>
@@ -2347,7 +2441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:62" ht="15">
       <c r="C35" s="19" t="s">
         <v>15</v>
       </c>
@@ -2486,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:62" ht="15">
       <c r="C36" s="19">
         <v>2019</v>
       </c>
@@ -2497,14 +2591,14 @@
         <v>3.33</v>
       </c>
       <c r="F36">
-        <v>5.6</v>
+        <v>5.60</v>
       </c>
       <c r="G36">
         <v>2.96</v>
       </c>
       <c r="I36">
         <f>D36+F36</f>
-        <v>11.78</v>
+        <v>11.779999999999999</v>
       </c>
       <c r="J36">
         <f>E36+G36</f>
@@ -2524,7 +2618,7 @@
       </c>
       <c r="O36" s="24">
         <f>G85</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="T36" s="9" t="s">
         <v>37</v>
@@ -2627,7 +2721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:62" ht="15">
       <c r="C37" s="19">
         <v>2020</v>
       </c>
@@ -2638,10 +2732,10 @@
         <v>8.48</v>
       </c>
       <c r="F37">
-        <v>6.5</v>
+        <v>6.50</v>
       </c>
       <c r="G37">
-        <v>7.2</v>
+        <v>7.20</v>
       </c>
       <c r="O37" s="22"/>
       <c r="T37" s="9" t="s">
@@ -2657,7 +2751,7 @@
         <v>2017</v>
       </c>
       <c r="X37">
-        <v>81279.984337530506</v>
+        <v>81278.984337530506</v>
       </c>
       <c r="Z37" s="7" t="s">
         <v>21</v>
@@ -2670,7 +2764,7 @@
         <v>2020</v>
       </c>
       <c r="AC37">
-        <v>73998.533002521595</v>
+        <v>81279.984337530506</v>
       </c>
       <c r="AE37" s="7" t="s">
         <v>21</v>
@@ -2683,7 +2777,7 @@
         <v>2025</v>
       </c>
       <c r="AH37">
-        <v>61862.780777506698</v>
+        <v>63100.036393056798</v>
       </c>
       <c r="AJ37" s="7" t="s">
         <v>21</v>
@@ -2696,7 +2790,7 @@
         <v>2030</v>
       </c>
       <c r="AM37">
-        <v>49727.028552491902</v>
+        <v>52213.379980116501</v>
       </c>
       <c r="AP37" s="7" t="s">
         <v>21</v>
@@ -2709,7 +2803,7 @@
         <v>2040</v>
       </c>
       <c r="AS37">
-        <v>49727.028552491902</v>
+        <v>53456.5556939288</v>
       </c>
       <c r="AU37" s="7" t="s">
         <v>21</v>
@@ -2722,7 +2816,7 @@
         <v>2050</v>
       </c>
       <c r="AX37">
-        <v>49727.028552491902</v>
+        <v>54699.731407741099</v>
       </c>
       <c r="AZ37" t="str">
         <f t="shared" si="14"/>
@@ -2734,33 +2828,33 @@
       </c>
       <c r="BB37">
         <f t="shared" si="4"/>
-        <v>81279.984337530506</v>
+        <v>81278.984337530506</v>
       </c>
       <c r="BC37">
         <f t="shared" si="5"/>
-        <v>73998.533002521595</v>
+        <v>81279.984337530506</v>
       </c>
       <c r="BD37">
         <f t="shared" si="6"/>
-        <v>61862.780777506698</v>
+        <v>63100.036393056798</v>
       </c>
       <c r="BE37">
         <f t="shared" si="7"/>
-        <v>49727.028552491902</v>
+        <v>52213.379980116501</v>
       </c>
       <c r="BF37">
         <f t="shared" si="8"/>
-        <v>49727.028552491902</v>
+        <v>53456.5556939288</v>
       </c>
       <c r="BG37">
         <f t="shared" si="9"/>
-        <v>49727.028552491902</v>
+        <v>54699.731407741099</v>
       </c>
       <c r="BJ37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:62" ht="15">
       <c r="C38" s="25"/>
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
@@ -2787,7 +2881,7 @@
         <v>2017</v>
       </c>
       <c r="X38">
-        <v>19505.013097345101</v>
+        <v>48762.532743362797</v>
       </c>
       <c r="Z38" s="7" t="s">
         <v>21</v>
@@ -2800,7 +2894,7 @@
         <v>2020</v>
       </c>
       <c r="AC38">
-        <v>13810.229699115</v>
+        <v>19505.013097345101</v>
       </c>
       <c r="AE38" s="7" t="s">
         <v>21</v>
@@ -2813,7 +2907,7 @@
         <v>2025</v>
       </c>
       <c r="AH38">
-        <v>12963.4941946903</v>
+        <v>13222.764078584099</v>
       </c>
       <c r="AJ38" s="7" t="s">
         <v>21</v>
@@ -2826,7 +2920,7 @@
         <v>2030</v>
       </c>
       <c r="AM38">
-        <v>12178.7471150442</v>
+        <v>12787.684470796399</v>
       </c>
       <c r="AP38" s="7" t="s">
         <v>21</v>
@@ -2839,7 +2933,7 @@
         <v>2040</v>
       </c>
       <c r="AS38">
-        <v>10818.9584778761</v>
+        <v>11630.3803637168</v>
       </c>
       <c r="AU38" s="7" t="s">
         <v>21</v>
@@ -2852,7 +2946,7 @@
         <v>2050</v>
       </c>
       <c r="AX38">
-        <v>9558.0875398230091</v>
+        <v>10513.896293805299</v>
       </c>
       <c r="AZ38" t="str">
         <f t="shared" si="14"/>
@@ -2864,33 +2958,33 @@
       </c>
       <c r="BB38">
         <f t="shared" si="4"/>
-        <v>19505.013097345101</v>
+        <v>48762.532743362797</v>
       </c>
       <c r="BC38">
         <f t="shared" si="5"/>
-        <v>13810.229699115</v>
+        <v>19505.013097345101</v>
       </c>
       <c r="BD38">
         <f t="shared" si="6"/>
-        <v>12963.4941946903</v>
+        <v>13222.764078584099</v>
       </c>
       <c r="BE38">
         <f t="shared" si="7"/>
-        <v>12178.7471150442</v>
+        <v>12787.684470796399</v>
       </c>
       <c r="BF38">
         <f t="shared" si="8"/>
-        <v>10818.9584778761</v>
+        <v>11630.3803637168</v>
       </c>
       <c r="BG38">
         <f t="shared" si="9"/>
-        <v>9558.0875398230091</v>
+        <v>10513.896293805299</v>
       </c>
       <c r="BJ38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="20:62" ht="15">
       <c r="T39" s="9" t="s">
         <v>43</v>
       </c>
@@ -2904,7 +2998,7 @@
         <v>2017</v>
       </c>
       <c r="X39">
-        <v>20793.080000000002</v>
+        <v>51982.699999999997</v>
       </c>
       <c r="Z39" s="7" t="s">
         <v>21</v>
@@ -2917,7 +3011,7 @@
         <v>2020</v>
       </c>
       <c r="AC39">
-        <v>14722.226000000001</v>
+        <v>20793.080000000002</v>
       </c>
       <c r="AE39" s="7" t="s">
         <v>21</v>
@@ -2930,7 +3024,7 @@
         <v>2025</v>
       </c>
       <c r="AH39">
-        <v>13819.574000000001</v>
+        <v>14095.965480000001</v>
       </c>
       <c r="AJ39" s="7" t="s">
         <v>21</v>
@@ -2943,7 +3037,7 @@
         <v>2030</v>
       </c>
       <c r="AM39">
-        <v>12983.004000000001</v>
+        <v>13632.154200000001</v>
       </c>
       <c r="AP39" s="7" t="s">
         <v>21</v>
@@ -2956,7 +3050,7 @@
         <v>2040</v>
       </c>
       <c r="AS39">
-        <v>11533.418</v>
+        <v>12398.424349999999</v>
       </c>
       <c r="AU39" s="7" t="s">
         <v>21</v>
@@ -2969,7 +3063,7 @@
         <v>2050</v>
       </c>
       <c r="AX39">
-        <v>10189.281999999999</v>
+        <v>11208.2102</v>
       </c>
       <c r="AZ39" t="str">
         <f t="shared" si="14"/>
@@ -2981,33 +3075,33 @@
       </c>
       <c r="BB39">
         <f t="shared" si="4"/>
-        <v>20793.080000000002</v>
+        <v>51982.699999999997</v>
       </c>
       <c r="BC39">
         <f t="shared" si="5"/>
-        <v>14722.226000000001</v>
+        <v>20793.080000000002</v>
       </c>
       <c r="BD39">
         <f t="shared" si="6"/>
-        <v>13819.574000000001</v>
+        <v>14095.965480000001</v>
       </c>
       <c r="BE39">
         <f t="shared" si="7"/>
-        <v>12983.004000000001</v>
+        <v>13632.154200000001</v>
       </c>
       <c r="BF39">
         <f t="shared" si="8"/>
-        <v>11533.418</v>
+        <v>12398.424349999999</v>
       </c>
       <c r="BG39">
         <f t="shared" si="9"/>
-        <v>10189.281999999999</v>
+        <v>11208.2102</v>
       </c>
       <c r="BJ39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="20:62" ht="15">
       <c r="T40" s="9" t="s">
         <v>45</v>
       </c>
@@ -3021,7 +3115,7 @@
         <v>2017</v>
       </c>
       <c r="X40">
-        <v>21530.351999999999</v>
+        <v>32295.527999999998</v>
       </c>
       <c r="Z40" s="7" t="s">
         <v>21</v>
@@ -3034,7 +3128,7 @@
         <v>2020</v>
       </c>
       <c r="AC40">
-        <v>17575</v>
+        <v>21530.351999999999</v>
       </c>
       <c r="AE40" s="7" t="s">
         <v>21</v>
@@ -3047,7 +3141,7 @@
         <v>2025</v>
       </c>
       <c r="AH40">
-        <v>17421.745999999999</v>
+        <v>17770.180919999999</v>
       </c>
       <c r="AJ40" s="7" t="s">
         <v>21</v>
@@ -3060,7 +3154,7 @@
         <v>2030</v>
       </c>
       <c r="AM40">
-        <v>17269.898000000001</v>
+        <v>18133.392899999999</v>
       </c>
       <c r="AP40" s="7" t="s">
         <v>21</v>
@@ -3073,7 +3167,7 @@
         <v>2040</v>
       </c>
       <c r="AS40">
-        <v>16969.013999999999</v>
+        <v>18241.690050000001</v>
       </c>
       <c r="AU40" s="7" t="s">
         <v>21</v>
@@ -3086,7 +3180,7 @@
         <v>2050</v>
       </c>
       <c r="AX40">
-        <v>16673.754000000001</v>
+        <v>18341.129400000002</v>
       </c>
       <c r="AZ40" t="str">
         <f t="shared" si="14"/>
@@ -3098,33 +3192,33 @@
       </c>
       <c r="BB40">
         <f t="shared" si="4"/>
-        <v>21530.351999999999</v>
+        <v>32295.527999999998</v>
       </c>
       <c r="BC40">
         <f t="shared" si="5"/>
-        <v>17575</v>
+        <v>21530.351999999999</v>
       </c>
       <c r="BD40">
         <f t="shared" si="6"/>
-        <v>17421.745999999999</v>
+        <v>17770.180919999999</v>
       </c>
       <c r="BE40">
         <f t="shared" si="7"/>
-        <v>17269.898000000001</v>
+        <v>18133.392899999999</v>
       </c>
       <c r="BF40">
         <f t="shared" si="8"/>
-        <v>16969.013999999999</v>
+        <v>18241.690050000001</v>
       </c>
       <c r="BG40">
         <f t="shared" si="9"/>
-        <v>16673.754000000001</v>
+        <v>18341.129400000002</v>
       </c>
       <c r="BJ40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="20:62" ht="15">
       <c r="T41" s="9" t="s">
         <v>47</v>
       </c>
@@ -3226,7 +3320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:62" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:62" ht="23.25">
       <c r="B42" s="31" t="s">
         <v>114</v>
       </c>
@@ -3331,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="20:62" ht="15">
       <c r="T43" s="9" t="s">
         <v>51</v>
       </c>
@@ -3433,7 +3527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:62" ht="15">
       <c r="C44" s="10" t="s">
         <v>115</v>
       </c>
@@ -3556,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:62" ht="15">
       <c r="C45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3575,7 +3669,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J45" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="K45" s="15">
         <v>0.75</v>
@@ -3684,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:62" ht="15">
       <c r="C46" t="str">
         <f>C45</f>
         <v>cmach_e</v>
@@ -3701,13 +3795,13 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I46" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J46" s="15">
         <v>0.65</v>
       </c>
       <c r="K46" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="L46" s="15">
         <v>0.75</v>
@@ -3813,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:62" ht="15">
       <c r="C47" t="str">
         <f>C46</f>
         <v>cmach_e</v>
@@ -3830,13 +3924,13 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I47" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J47" s="15">
         <v>0.55000000000000004</v>
       </c>
       <c r="K47" s="15">
-        <v>0.6</v>
+        <v>0.60</v>
       </c>
       <c r="L47" s="15">
         <v>0.65</v>
@@ -3942,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:62" ht="15">
       <c r="C48" t="str">
         <f>C47</f>
         <v>cmach_e</v>
@@ -3959,7 +4053,7 @@
         <v>0.47058823529411764</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" ref="I48:L48" si="16">H48</f>
+        <f t="shared" si="16" ref="I48:L48">H48</f>
         <v>0.47058823529411764</v>
       </c>
       <c r="J48" s="5">
@@ -4003,7 +4097,7 @@
         <v>2020</v>
       </c>
       <c r="AC48">
-        <v>24484.621581831001</v>
+        <v>38195.713600000003</v>
       </c>
       <c r="AE48" s="7" t="s">
         <v>21</v>
@@ -4016,7 +4110,7 @@
         <v>2025</v>
       </c>
       <c r="AH48">
-        <v>24174.373750639999</v>
+        <v>24657.861225652799</v>
       </c>
       <c r="AJ48" s="7" t="s">
         <v>21</v>
@@ -4029,7 +4123,7 @@
         <v>2030</v>
       </c>
       <c r="AM48">
-        <v>20263.657963585501</v>
+        <v>21276.840861764798</v>
       </c>
       <c r="AP48" s="7" t="s">
         <v>21</v>
@@ -4042,7 +4136,7 @@
         <v>2040</v>
       </c>
       <c r="AS48">
-        <v>17138.851112089698</v>
+        <v>18424.264945496401</v>
       </c>
       <c r="AU48" s="7" t="s">
         <v>21</v>
@@ -4055,7 +4149,7 @@
         <v>2050</v>
       </c>
       <c r="AX48">
-        <v>14015.472524548701</v>
+        <v>15417.019777003599</v>
       </c>
       <c r="AZ48" t="str">
         <f t="shared" si="14"/>
@@ -4071,29 +4165,29 @@
       </c>
       <c r="BC48">
         <f t="shared" si="5"/>
-        <v>24484.621581831001</v>
+        <v>38195.713600000003</v>
       </c>
       <c r="BD48">
         <f t="shared" si="6"/>
-        <v>24174.373750639999</v>
+        <v>24657.861225652799</v>
       </c>
       <c r="BE48">
         <f t="shared" si="7"/>
-        <v>20263.657963585501</v>
+        <v>21276.840861764798</v>
       </c>
       <c r="BF48">
         <f t="shared" si="8"/>
-        <v>17138.851112089698</v>
+        <v>18424.264945496401</v>
       </c>
       <c r="BG48">
         <f t="shared" si="9"/>
-        <v>14015.472524548701</v>
+        <v>15417.019777003599</v>
       </c>
       <c r="BJ48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="20:62" ht="15">
       <c r="T49" t="s">
         <v>63</v>
       </c>
@@ -4107,7 +4201,7 @@
         <v>2017</v>
       </c>
       <c r="X49">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z49" s="7" t="s">
         <v>21</v>
@@ -4120,7 +4214,7 @@
         <v>2020</v>
       </c>
       <c r="AC49">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE49" s="7" t="s">
         <v>21</v>
@@ -4133,7 +4227,7 @@
         <v>2025</v>
       </c>
       <c r="AH49">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ49" s="7" t="s">
         <v>21</v>
@@ -4146,7 +4240,7 @@
         <v>2030</v>
       </c>
       <c r="AM49">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP49" s="7" t="s">
         <v>21</v>
@@ -4159,7 +4253,7 @@
         <v>2040</v>
       </c>
       <c r="AS49">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU49" s="7" t="s">
         <v>21</v>
@@ -4172,7 +4266,7 @@
         <v>2050</v>
       </c>
       <c r="AX49">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ49" t="str">
         <f t="shared" si="14"/>
@@ -4184,33 +4278,33 @@
       </c>
       <c r="BB49">
         <f t="shared" si="4"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC49">
         <f t="shared" si="5"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD49">
         <f t="shared" si="6"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE49">
         <f t="shared" si="7"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF49">
         <f t="shared" si="8"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG49">
         <f t="shared" si="9"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ49">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="20:62" ht="15">
       <c r="T50" t="s">
         <v>65</v>
       </c>
@@ -4224,7 +4318,7 @@
         <v>2017</v>
       </c>
       <c r="X50">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z50" s="7" t="s">
         <v>21</v>
@@ -4237,7 +4331,7 @@
         <v>2020</v>
       </c>
       <c r="AC50">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE50" s="7" t="s">
         <v>21</v>
@@ -4250,7 +4344,7 @@
         <v>2025</v>
       </c>
       <c r="AH50">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ50" s="7" t="s">
         <v>21</v>
@@ -4263,7 +4357,7 @@
         <v>2030</v>
       </c>
       <c r="AM50">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP50" s="7" t="s">
         <v>21</v>
@@ -4276,7 +4370,7 @@
         <v>2040</v>
       </c>
       <c r="AS50">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU50" s="7" t="s">
         <v>21</v>
@@ -4289,7 +4383,7 @@
         <v>2050</v>
       </c>
       <c r="AX50">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ50" t="str">
         <f t="shared" si="14"/>
@@ -4301,33 +4395,33 @@
       </c>
       <c r="BB50">
         <f t="shared" si="4"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC50">
         <f t="shared" si="5"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD50">
         <f t="shared" si="6"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE50">
         <f t="shared" si="7"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF50">
         <f t="shared" si="8"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG50">
         <f t="shared" si="9"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:62" ht="15">
       <c r="C51" s="10" t="s">
         <v>116</v>
       </c>
@@ -4344,7 +4438,7 @@
         <v>2017</v>
       </c>
       <c r="X51">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z51" s="7" t="s">
         <v>21</v>
@@ -4357,7 +4451,7 @@
         <v>2020</v>
       </c>
       <c r="AC51">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE51" s="7" t="s">
         <v>21</v>
@@ -4370,7 +4464,7 @@
         <v>2025</v>
       </c>
       <c r="AH51">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ51" s="7" t="s">
         <v>21</v>
@@ -4383,7 +4477,7 @@
         <v>2030</v>
       </c>
       <c r="AM51">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP51" s="7" t="s">
         <v>21</v>
@@ -4396,7 +4490,7 @@
         <v>2040</v>
       </c>
       <c r="AS51">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU51" s="7" t="s">
         <v>21</v>
@@ -4409,7 +4503,7 @@
         <v>2050</v>
       </c>
       <c r="AX51">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ51" t="str">
         <f t="shared" si="14"/>
@@ -4421,33 +4515,33 @@
       </c>
       <c r="BB51">
         <f t="shared" si="4"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC51">
         <f t="shared" si="5"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD51">
         <f t="shared" si="6"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE51">
         <f t="shared" si="7"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF51">
         <f t="shared" si="8"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG51">
         <f t="shared" si="9"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ51">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:62" ht="15">
       <c r="C52" s="3" t="s">
         <v>11</v>
       </c>
@@ -4466,7 +4560,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="J52" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="K52" s="15">
         <v>0.75</v>
@@ -4487,7 +4581,7 @@
         <v>2017</v>
       </c>
       <c r="X52">
-        <v>34133.772920354</v>
+        <v>85334.432300885004</v>
       </c>
       <c r="Z52" s="7" t="s">
         <v>21</v>
@@ -4500,7 +4594,7 @@
         <v>2020</v>
       </c>
       <c r="AC52">
-        <v>24167.901973451299</v>
+        <v>34133.772920354</v>
       </c>
       <c r="AE52" s="7" t="s">
         <v>21</v>
@@ -4513,7 +4607,7 @@
         <v>2025</v>
       </c>
       <c r="AH52">
-        <v>22686.114840708</v>
+        <v>23139.837137522201</v>
       </c>
       <c r="AJ52" s="7" t="s">
         <v>21</v>
@@ -4526,7 +4620,7 @@
         <v>2030</v>
       </c>
       <c r="AM52">
-        <v>21312.8074513274</v>
+        <v>22378.447823893799</v>
       </c>
       <c r="AP52" s="7" t="s">
         <v>21</v>
@@ -4539,7 +4633,7 @@
         <v>2040</v>
       </c>
       <c r="AS52">
-        <v>18933.177336283199</v>
+        <v>20353.1656365044</v>
       </c>
       <c r="AU52" s="7" t="s">
         <v>21</v>
@@ -4552,7 +4646,7 @@
         <v>2050</v>
       </c>
       <c r="AX52">
-        <v>16726.653194690301</v>
+        <v>18399.318514159299</v>
       </c>
       <c r="AZ52" t="str">
         <f t="shared" si="14"/>
@@ -4564,33 +4658,33 @@
       </c>
       <c r="BB52">
         <f t="shared" si="4"/>
-        <v>34133.772920354</v>
+        <v>85334.432300885004</v>
       </c>
       <c r="BC52">
         <f t="shared" si="5"/>
-        <v>24167.901973451299</v>
+        <v>34133.772920354</v>
       </c>
       <c r="BD52">
         <f t="shared" si="6"/>
-        <v>22686.114840708</v>
+        <v>23139.837137522201</v>
       </c>
       <c r="BE52">
         <f t="shared" si="7"/>
-        <v>21312.8074513274</v>
+        <v>22378.447823893799</v>
       </c>
       <c r="BF52">
         <f t="shared" si="8"/>
-        <v>18933.177336283199</v>
+        <v>20353.1656365044</v>
       </c>
       <c r="BG52">
         <f t="shared" si="9"/>
-        <v>16726.653194690301</v>
+        <v>18399.318514159299</v>
       </c>
       <c r="BJ52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:62" ht="15">
       <c r="C53" t="str">
         <f>C52</f>
         <v>cemch_e</v>
@@ -4607,13 +4701,13 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I53" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J53" s="15">
         <v>0.65</v>
       </c>
       <c r="K53" s="15">
-        <v>0.7</v>
+        <v>0.70</v>
       </c>
       <c r="L53" s="15">
         <v>0.75</v>
@@ -4631,7 +4725,7 @@
         <v>2017</v>
       </c>
       <c r="X53">
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="Z53" s="7" t="s">
         <v>21</v>
@@ -4644,7 +4738,7 @@
         <v>2020</v>
       </c>
       <c r="AC53">
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="AE53" s="7" t="s">
         <v>21</v>
@@ -4657,7 +4751,7 @@
         <v>2025</v>
       </c>
       <c r="AH53">
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="AJ53" s="7" t="s">
         <v>21</v>
@@ -4670,7 +4764,7 @@
         <v>2030</v>
       </c>
       <c r="AM53">
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="AP53" s="7" t="s">
         <v>21</v>
@@ -4683,7 +4777,7 @@
         <v>2040</v>
       </c>
       <c r="AS53">
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="AU53" s="7" t="s">
         <v>21</v>
@@ -4696,7 +4790,7 @@
         <v>2050</v>
       </c>
       <c r="AX53">
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="AZ53" t="str">
         <f t="shared" si="14"/>
@@ -4708,33 +4802,33 @@
       </c>
       <c r="BB53">
         <f t="shared" si="4"/>
-        <v>22625.8151929204</v>
+        <v>56564.537982300899</v>
       </c>
       <c r="BC53">
         <f t="shared" si="5"/>
-        <v>16019.866450973501</v>
+        <v>22625.8151929204</v>
       </c>
       <c r="BD53">
         <f t="shared" si="6"/>
-        <v>15037.6532658407</v>
+        <v>15338.406331157499</v>
       </c>
       <c r="BE53">
         <f t="shared" si="7"/>
-        <v>14127.346653451301</v>
+        <v>14833.713986123899</v>
       </c>
       <c r="BF53">
         <f t="shared" si="8"/>
-        <v>12549.991834336301</v>
+        <v>13491.241221911499</v>
       </c>
       <c r="BG53">
         <f t="shared" si="9"/>
-        <v>11087.3815461947</v>
+        <v>12196.119700814201</v>
       </c>
       <c r="BJ53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:62" ht="15">
       <c r="C54" t="str">
         <f>C53</f>
         <v>cemch_e</v>
@@ -4751,13 +4845,13 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I54" s="15">
-        <v>0.5</v>
+        <v>0.50</v>
       </c>
       <c r="J54" s="15">
         <v>0.55000000000000004</v>
       </c>
       <c r="K54" s="15">
-        <v>0.6</v>
+        <v>0.60</v>
       </c>
       <c r="L54" s="15">
         <v>0.65</v>
@@ -4775,7 +4869,7 @@
         <v>2017</v>
       </c>
       <c r="X54">
-        <v>6329.3065449900196</v>
+        <v>1637.60737116</v>
       </c>
       <c r="Z54" s="7"/>
       <c r="AA54" s="9"/>
@@ -4799,13 +4893,13 @@
       </c>
       <c r="BB54">
         <f t="shared" si="4"/>
-        <v>6329.3065449900196</v>
+        <v>1637.60737116</v>
       </c>
       <c r="BJ54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:28 47:62" ht="15">
       <c r="C55" t="str">
         <f>C54</f>
         <v>cemch_e</v>
@@ -4822,7 +4916,7 @@
         <v>0.47538200339558578</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" ref="I55:L55" si="17">H55</f>
+        <f t="shared" si="17" ref="I55:L55">H55</f>
         <v>0.47538200339558578</v>
       </c>
       <c r="J55" s="5">
@@ -4853,7 +4947,7 @@
         <v>2017</v>
       </c>
       <c r="X55">
-        <v>2812</v>
+        <v>337.44</v>
       </c>
       <c r="Z55" s="7"/>
       <c r="AA55" s="9"/>
@@ -4871,13 +4965,13 @@
       </c>
       <c r="BB55">
         <f t="shared" si="4"/>
-        <v>2812</v>
+        <v>337.44</v>
       </c>
       <c r="BJ55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="20:62" ht="15">
       <c r="T56" s="9" t="s">
         <v>77</v>
       </c>
@@ -4891,7 +4985,7 @@
         <v>2017</v>
       </c>
       <c r="X56">
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="Z56" s="7"/>
       <c r="AA56" s="9"/>
@@ -4909,13 +5003,13 @@
       </c>
       <c r="BB56">
         <f t="shared" si="4"/>
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="BJ56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3 20:28 47:62" ht="15">
       <c r="C57" s="10" t="s">
         <v>117</v>
       </c>
@@ -4932,7 +5026,7 @@
         <v>2017</v>
       </c>
       <c r="X57">
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="Z57" s="7"/>
       <c r="AA57" s="9"/>
@@ -4950,13 +5044,13 @@
       </c>
       <c r="BB57">
         <f t="shared" si="4"/>
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="BJ57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:28 47:62" ht="15">
       <c r="C58" t="s">
         <v>128</v>
       </c>
@@ -4968,7 +5062,7 @@
         <v>0.93842364532019706</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" ref="H58:I60" si="18">G58</f>
+        <f t="shared" si="18" ref="H58:I60">G58</f>
         <v>0.93842364532019706</v>
       </c>
       <c r="I58" s="15">
@@ -4980,7 +5074,7 @@
         <v>0.94827586206896552</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" ref="K58:L58" si="19">J58+$O$58</f>
+        <f t="shared" si="19" ref="K58:L58">J58+$O$58</f>
         <v>0.95812807881773399</v>
       </c>
       <c r="L58" s="15">
@@ -4989,7 +5083,7 @@
       </c>
       <c r="O58" s="5">
         <f>J85</f>
-        <v>9.852216748768473E-3</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="T58" s="9" t="s">
         <v>81</v>
@@ -5004,7 +5098,7 @@
         <v>2017</v>
       </c>
       <c r="X58">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="Z58" s="7"/>
       <c r="AA58" s="9"/>
@@ -5022,13 +5116,13 @@
       </c>
       <c r="BB58">
         <f t="shared" si="4"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:28 47:62" ht="15">
       <c r="C59" t="s">
         <v>128</v>
       </c>
@@ -5052,11 +5146,11 @@
         <v>0.94827586206896552</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" ref="K59" si="20">J59</f>
+        <f t="shared" si="20" ref="K59">J59</f>
         <v>0.94827586206896552</v>
       </c>
       <c r="L59" s="15">
-        <f t="shared" ref="L59" si="21">K59</f>
+        <f t="shared" si="21" ref="L59">K59</f>
         <v>0.94827586206896552</v>
       </c>
       <c r="T59" s="9" t="s">
@@ -5072,7 +5166,7 @@
         <v>2017</v>
       </c>
       <c r="X59">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="Z59" s="7"/>
       <c r="AA59" s="9"/>
@@ -5090,13 +5184,13 @@
       </c>
       <c r="BB59">
         <f t="shared" si="4"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:28 47:62" ht="15">
       <c r="C60" t="s">
         <v>128</v>
       </c>
@@ -5139,7 +5233,7 @@
         <v>2017</v>
       </c>
       <c r="X60">
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="Z60" s="7"/>
       <c r="AA60" s="9"/>
@@ -5157,13 +5251,13 @@
       </c>
       <c r="BB60">
         <f t="shared" si="4"/>
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="BJ60">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24 52:62" ht="15">
       <c r="C61" t="s">
         <v>128</v>
       </c>
@@ -5187,7 +5281,7 @@
         <v>0.93842364532019706</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" ref="K61:L61" si="22">J61</f>
+        <f t="shared" si="22" ref="K61:L61">J61</f>
         <v>0.93842364532019706</v>
       </c>
       <c r="L61" s="6">
@@ -5210,7 +5304,7 @@
         <v>2017</v>
       </c>
       <c r="X61">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ61" t="str">
         <f t="shared" si="14"/>
@@ -5222,13 +5316,13 @@
       </c>
       <c r="BB61">
         <f t="shared" si="4"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="20:24 52:62" ht="15">
       <c r="T62" s="9" t="s">
         <v>89</v>
       </c>
@@ -5242,7 +5336,7 @@
         <v>2017</v>
       </c>
       <c r="X62">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ62" t="str">
         <f t="shared" si="14"/>
@@ -5254,13 +5348,13 @@
       </c>
       <c r="BB62">
         <f t="shared" si="4"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3 20:24 52:62" ht="15">
       <c r="C63" s="10" t="s">
         <v>118</v>
       </c>
@@ -5277,7 +5371,7 @@
         <v>2017</v>
       </c>
       <c r="X63">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ63" t="str">
         <f t="shared" si="14"/>
@@ -5289,13 +5383,13 @@
       </c>
       <c r="BB63">
         <f t="shared" si="4"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:24 52:62" ht="15">
       <c r="C64" s="3" t="s">
         <v>123</v>
       </c>
@@ -5307,7 +5401,7 @@
         <v>0.76065573770491801</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" ref="H64:I66" si="23">G64</f>
+        <f t="shared" si="23" ref="H64:I66">G64</f>
         <v>0.76065573770491801</v>
       </c>
       <c r="I64" s="15">
@@ -5319,7 +5413,7 @@
         <v>0.78098360655737697</v>
       </c>
       <c r="K64" s="15">
-        <f t="shared" ref="K64:L67" si="24">J64</f>
+        <f t="shared" si="24" ref="K64:L67">J64</f>
         <v>0.78098360655737697</v>
       </c>
       <c r="L64" s="15">
@@ -5328,7 +5422,7 @@
       </c>
       <c r="O64" s="28">
         <f>J87</f>
-        <v>2.0327868852459016E-2</v>
+        <v>0.020327868852459016</v>
       </c>
       <c r="T64" s="9" t="s">
         <v>93</v>
@@ -5343,7 +5437,7 @@
         <v>2017</v>
       </c>
       <c r="X64">
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="AZ64" t="str">
         <f t="shared" si="14"/>
@@ -5355,13 +5449,13 @@
       </c>
       <c r="BB64">
         <f t="shared" si="4"/>
-        <v>8791.3381114607892</v>
+        <v>4526.8304959535499</v>
       </c>
       <c r="BJ64">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24 52:62" ht="15">
       <c r="C65" t="str">
         <f>C64</f>
         <v>cmetp</v>
@@ -5406,7 +5500,7 @@
         <v>2017</v>
       </c>
       <c r="X65">
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="AZ65" t="str">
         <f t="shared" si="14"/>
@@ -5418,13 +5512,13 @@
       </c>
       <c r="BB65">
         <f t="shared" si="4"/>
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="BJ65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24 52:62" ht="15">
       <c r="C66" t="str">
         <f>C65</f>
         <v>cmetp</v>
@@ -5469,7 +5563,7 @@
         <v>2017</v>
       </c>
       <c r="X66">
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="AZ66" t="str">
         <f t="shared" si="14"/>
@@ -5481,13 +5575,13 @@
       </c>
       <c r="BB66">
         <f t="shared" si="4"/>
-        <v>14124.4235169599</v>
+        <v>7272.9396030149201</v>
       </c>
       <c r="BJ66">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24 52:62" ht="15">
       <c r="C67" t="str">
         <f>C66</f>
         <v>cmetp</v>
@@ -5508,7 +5602,7 @@
         <v>0.76065573770491801</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" ref="J67" si="25">I67</f>
+        <f t="shared" si="25" ref="J67">I67</f>
         <v>0.76065573770491801</v>
       </c>
       <c r="K67" s="6">
@@ -5535,7 +5629,7 @@
         <v>2017</v>
       </c>
       <c r="X67">
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="AZ67" t="str">
         <f t="shared" si="14"/>
@@ -5547,13 +5641,13 @@
       </c>
       <c r="BB67">
         <f t="shared" si="4"/>
-        <v>36989.331580508697</v>
+        <v>19046.524215158599</v>
       </c>
       <c r="BJ67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="20:24 52:62" ht="15">
       <c r="T68" s="9" t="s">
         <v>101</v>
       </c>
@@ -5567,7 +5661,7 @@
         <v>2017</v>
       </c>
       <c r="X68">
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="AZ68" t="str">
         <f t="shared" si="14"/>
@@ -5579,13 +5673,13 @@
       </c>
       <c r="BB68">
         <f t="shared" si="4"/>
-        <v>18494.665850167301</v>
+        <v>9523.2621384296508</v>
       </c>
       <c r="BJ68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:62" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:2 20:24 52:62" ht="23.25">
       <c r="B69" s="31" t="s">
         <v>134</v>
       </c>
@@ -5602,7 +5696,7 @@
         <v>2017</v>
       </c>
       <c r="X69">
-        <v>9247.3329250836705</v>
+        <v>4761.6310692148199</v>
       </c>
       <c r="AZ69" t="str">
         <f t="shared" si="14"/>
@@ -5614,13 +5708,13 @@
       </c>
       <c r="BB69">
         <f t="shared" si="4"/>
-        <v>9247.3329250836705</v>
+        <v>4761.6310692148199</v>
       </c>
       <c r="BJ69">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:23" ht="15">
       <c r="F70" t="s">
         <v>111</v>
       </c>
@@ -5640,12 +5734,12 @@
         <v>0.125</v>
       </c>
       <c r="L70" s="6">
-        <v>0.2</v>
+        <v>0.20</v>
       </c>
       <c r="V70" s="9"/>
       <c r="W70" s="9"/>
     </row>
-    <row r="71" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:12" ht="15">
       <c r="F71" t="s">
         <v>112</v>
       </c>
@@ -5662,13 +5756,13 @@
         <v>0.05</v>
       </c>
       <c r="K71" s="6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="L71" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="72" spans="2:62" x14ac:dyDescent="0.25">
+        <v>0.10</v>
+      </c>
+    </row>
+    <row r="72" spans="6:12" ht="15">
       <c r="F72" t="s">
         <v>113</v>
       </c>
@@ -5682,18 +5776,18 @@
         <v>0.01</v>
       </c>
       <c r="J72" s="5">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="K72" s="5">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="L72" s="5">
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="2:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:12" ht="15">
       <c r="F73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G73" s="6">
         <v>0</v>
@@ -5714,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:11" ht="15">
       <c r="G83" t="s">
         <v>129</v>
       </c>
@@ -5731,7 +5825,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="84" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:10" ht="15">
       <c r="F84" t="s">
         <v>128</v>
       </c>
@@ -5749,22 +5843,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:10" ht="15">
       <c r="G85" s="4">
         <f>G84/I84</f>
-        <v>6.1576354679802957E-2</v>
+        <v>0.061576354679802957</v>
       </c>
       <c r="J85" s="29">
         <f>J84/I84</f>
-        <v>9.852216748768473E-3</v>
-      </c>
-    </row>
-    <row r="86" spans="6:11" x14ac:dyDescent="0.25">
+        <v>0.009852216748768473</v>
+      </c>
+    </row>
+    <row r="86" spans="6:10" ht="15">
       <c r="F86" t="s">
         <v>133</v>
       </c>
       <c r="G86">
-        <v>36.5</v>
+        <v>36.50</v>
       </c>
       <c r="H86">
         <v>116</v>
@@ -5774,30 +5868,30 @@
         <v>152.5</v>
       </c>
       <c r="J86">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="87" spans="6:11" x14ac:dyDescent="0.25">
+        <v>3.10</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10" ht="15">
       <c r="G87" s="29">
         <f>G86/I86</f>
         <v>0.23934426229508196</v>
       </c>
       <c r="J87" s="29">
         <f>J86/I86</f>
-        <v>2.0327868852459016E-2</v>
+        <v>0.020327868852459016</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4" xr:uid="{28F83205-2B6D-4B86-9C9B-CC3DB94DE282}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
       <formula1>$F$45:$F$48</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5" xr:uid="{756F0680-B6E2-4F55-941A-0FAA101C56C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
       <formula1>$F$70:$F$73</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>